--- a/doc/06 BugList.xlsx
+++ b/doc/06 BugList.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MakeFirends\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24743786-94AD-4184-8B33-B9003F8CE40D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="9390"/>
+    <workbookView xWindow="3564" yWindow="1524" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第1次迭代" sheetId="1" r:id="rId1"/>
@@ -59,19 +65,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>xxxx项目组第1次迭代测试计划表</t>
+    <t>测试时间：</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>测试时间：</t>
+    <t>焦点学苑项目组第1次迭代测试计划表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -109,6 +115,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -193,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -228,18 +241,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1_3" xfId="1"/>
+    <cellStyle name="常规_Sheet1_3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -531,14 +550,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.8984375" style="3" customWidth="1"/>
     <col min="2" max="2" width="20.59765625" style="3" customWidth="1"/>
@@ -550,15 +569,15 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.2" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>10</v>
+    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="11"/>
       <c r="E1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>9</v>
@@ -566,7 +585,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="25.6" customHeight="1">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="25.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -592,7 +611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -606,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -620,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -634,7 +653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -648,7 +667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -662,7 +681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -676,7 +695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="9" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -690,7 +709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="10" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -704,7 +723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -718,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -732,7 +751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -746,7 +765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -760,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -774,7 +793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -788,7 +807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -802,7 +821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -816,7 +835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -830,7 +849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="20" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -844,7 +863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -858,7 +877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="21.95" customHeight="1">
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -879,7 +898,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"打开,已解决,解决中,回归测试,关闭"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/06 BugList.xlsx
+++ b/doc/06 BugList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MakeFirends\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24743786-94AD-4184-8B33-B9003F8CE40D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7365282-A39E-4FD2-8ACB-3E0ACA64954D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3564" yWindow="1524" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第1次迭代" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Bug名称</t>
   </si>
@@ -72,12 +72,54 @@
     <t>焦点学苑项目组第1次迭代测试计划表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>登陆后的首页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆后首页上未显示用户信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘磊</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制更改字体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索模块中的信息为null</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决中</t>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新页面会再次执行功能程序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台功能代码语序错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -122,6 +164,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -206,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,17 +282,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -554,7 +608,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -570,7 +624,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="10"/>
@@ -579,7 +633,7 @@
       <c r="E1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="10"/>
@@ -615,42 +669,64 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
